--- a/data_pipeline_inExcel.xlsx
+++ b/data_pipeline_inExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\klongnecker\Documents\Dropbox\GitHub\data_pipeline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B95ED560-3B1C-486A-A559-3966BBDD6B5A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2960087-000A-4FFA-8B08-DFB7229C524F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18810" windowHeight="8175" xr2:uid="{601F4121-6B15-4DAB-9F8D-B5E17A764040}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
   <si>
     <t>at sea</t>
   </si>
@@ -315,6 +315,78 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>Next step</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: copy the new worksheet into the discrete file, copy the header with the colors, update the log</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Status</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: opens up Excel file with new data in rows</t>
+    </r>
+  </si>
+  <si>
+    <t>Join_BATS_All_with_master_v3.R</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Next step</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: append the new rows to the existing bottle file; update the log; save Excel file with new date</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Next step:</t>
     </r>
     <r>
@@ -325,53 +397,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> use Join_discreteData.R to pull the variables into the bottle file</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Next step</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: copy the new worksheet into the discrete file, copy the header with the colors, update the log</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Next step</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: copy the CSV file as new rows in the existing bottle file</t>
+      <t xml:space="preserve"> use Join_discreteData_v2.R to pull the variables into the bottle file</t>
     </r>
   </si>
 </sst>
@@ -863,10 +889,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.45" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -939,7 +965,7 @@
       <c r="A7" s="10"/>
       <c r="B7" s="15"/>
       <c r="C7" s="7" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="D7" s="13"/>
     </row>
@@ -947,7 +973,7 @@
       <c r="A8" s="10"/>
       <c r="B8" s="16"/>
       <c r="C8" s="5" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D8" s="13"/>
     </row>
@@ -955,31 +981,31 @@
       <c r="A9" s="10"/>
       <c r="B9" s="16"/>
       <c r="C9" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D9" s="13"/>
     </row>
-    <row r="10" spans="1:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="B10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="4"/>
       <c r="D10" s="13"/>
     </row>
-    <row r="11" spans="1:4" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
-      <c r="B11" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="4"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="7" t="s">
+        <v>7</v>
+      </c>
       <c r="D11" s="13"/>
     </row>
     <row r="12" spans="1:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="7" t="s">
-        <v>7</v>
+      <c r="B12" s="16"/>
+      <c r="C12" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="D12" s="13"/>
     </row>
@@ -987,57 +1013,49 @@
       <c r="A13" s="10"/>
       <c r="B13" s="16"/>
       <c r="C13" s="5" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D13" s="13"/>
     </row>
-    <row r="14" spans="1:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="B14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="4"/>
       <c r="D14" s="13"/>
     </row>
-    <row r="15" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
-      <c r="B15" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="4"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="D15" s="13"/>
     </row>
     <row r="16" spans="1:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="7" t="s">
-        <v>24</v>
+      <c r="B16" s="16"/>
+      <c r="C16" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="D16" s="13"/>
     </row>
     <row r="17" spans="1:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="16"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="17"/>
       <c r="C17" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="13"/>
-    </row>
-    <row r="18" spans="1:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="14"/>
+        <v>26</v>
+      </c>
+      <c r="D17" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A2:A18"/>
-    <mergeCell ref="D3:D18"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="A2:A17"/>
+    <mergeCell ref="D3:D17"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B15:B17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="59" orientation="portrait" r:id="rId1"/>
